--- a/testdata/localhost登录.xlsx
+++ b/testdata/localhost登录.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>序号</t>
   </si>
@@ -53,10 +53,10 @@
     <t>y</t>
   </si>
   <si>
-    <t>2019-04-21 08:53:03</t>
-  </si>
-  <si>
-    <t>&lt;失败&gt;用例：登录, 共有步骤：9，成功执行步骤：8</t>
+    <t>2019-05-04 09:47:31</t>
+  </si>
+  <si>
+    <t>&lt;失败&gt;登录, 共有步骤: 9，执行成功步骤: 8</t>
   </si>
   <si>
     <t>数据</t>
@@ -68,403 +68,490 @@
     <t>个人信息</t>
   </si>
   <si>
-    <t>2019-04-21 08:53:07</t>
-  </si>
-  <si>
-    <t>&lt;成功&gt;用例：修改资料, 共有条数：4, 实际执行条数：4</t>
+    <t>2019-05-04 09:47:55</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt;修改资料, 共有条数：4, 成功条数：4</t>
   </si>
   <si>
     <t>百度搜索</t>
   </si>
   <si>
+    <t>2019-05-04 09:48:10</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt;百度搜索, 共有步骤: 7，执行成功步骤: 7</t>
+  </si>
+  <si>
+    <t>步骤描述</t>
+  </si>
+  <si>
+    <t>方法关键字</t>
+  </si>
+  <si>
+    <t>locType</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>操作值</t>
+  </si>
+  <si>
+    <t>今天5月4日，星期六</t>
+  </si>
+  <si>
+    <t>选择浏览器</t>
+  </si>
+  <si>
+    <t>getBrowser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getBrowser("chrome")</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2019-05-04 07:26:46</t>
+  </si>
+  <si>
+    <t>输入网址</t>
+  </si>
+  <si>
+    <t>getUrl</t>
+  </si>
+  <si>
+    <t>http://localhost</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getUrl("http://localhost")</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:23</t>
+  </si>
+  <si>
+    <t>写入A4</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>getSendKeys</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>gotIt</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getSendKeys('name', 'username', 'gotIt')</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:26</t>
+  </si>
+  <si>
+    <t>单元格写入</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>gotIt123</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getSendKeys('name', 'password', 'gotIt123')</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:27</t>
+  </si>
+  <si>
+    <t>02-05 08:45:00</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>getClick</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getClick('name', 'Submit')</t>
+  </si>
+  <si>
+    <t>partial link text</t>
+  </si>
+  <si>
+    <t>请点击这里</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getClick('partial link text', '请点击这里')</t>
+  </si>
+  <si>
+    <t>getAssertIn</t>
+  </si>
+  <si>
+    <t>我的空间</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getAssertIn("我的空间")</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:30</t>
+  </si>
+  <si>
+    <t>外星人的空间</t>
+  </si>
+  <si>
+    <t>&lt;失败&gt; getAssertIn("外星人的空间")页面代码中没有发现目标元素：外星人的空间</t>
+  </si>
+  <si>
+    <t>错误截图地址</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>getSleep</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getSleep(1)</t>
+  </si>
+  <si>
+    <t>定位类型</t>
+  </si>
+  <si>
+    <t>定位元素表达式</t>
+  </si>
+  <si>
+    <t>link text</t>
+  </si>
+  <si>
+    <t>会员中心</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>truename</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>oicq</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>msn</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>mycall</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>getUploadLocalFile</t>
+  </si>
+  <si>
+    <t>userpicfile</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>saytext</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>座机</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>本地头像</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>个人介绍</t>
+  </si>
+  <si>
+    <t>执行结束时间</t>
+  </si>
+  <si>
+    <t>小李</t>
+  </si>
+  <si>
+    <t>hotmail</t>
+  </si>
+  <si>
+    <t>www.ccom</t>
+  </si>
+  <si>
+    <t>D:\Desktop\gaming\jiang.jpg</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>大家好</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt;个人信息: 共有步骤：12, 执行成功步骤：12</t>
+  </si>
+  <si>
+    <t>小王</t>
+  </si>
+  <si>
+    <t>126.com</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>D:\Desktop\gaming\ing.jpg</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>不错</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:37</t>
+  </si>
+  <si>
+    <t>小张</t>
+  </si>
+  <si>
+    <t>qq.com</t>
+  </si>
+  <si>
+    <t>httpcom</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>有点冷</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:43</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>步骤描述</t>
-  </si>
-  <si>
-    <t>方法关键字</t>
-  </si>
-  <si>
-    <t>locType</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>操作值</t>
-  </si>
-  <si>
-    <t>今天5月4日，星期六</t>
-  </si>
-  <si>
-    <t>选择浏览器</t>
-  </si>
-  <si>
-    <t>getBrowser</t>
+    <t>Marry</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>www.en</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:49</t>
   </si>
   <si>
     <t>firefox</t>
   </si>
   <si>
-    <t>通过:getBrowser</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:52:48</t>
-  </si>
-  <si>
-    <t>2019-05-04 07:24:26</t>
-  </si>
-  <si>
-    <t>输入网址</t>
-  </si>
-  <si>
-    <t>getUrl</t>
-  </si>
-  <si>
-    <t>http://localhost</t>
-  </si>
-  <si>
-    <t>通过:getUrl</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:52:52</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>getSend_keys</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>gotIt</t>
-  </si>
-  <si>
-    <t>通过:getSend_keys</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:52:55</t>
-  </si>
-  <si>
-    <t>单元格写入</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>gotIt123</t>
-  </si>
-  <si>
-    <t>02-05 08:45:00</t>
-  </si>
-  <si>
-    <t>点击登录</t>
-  </si>
-  <si>
-    <t>getClick</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>通过:getClick</t>
-  </si>
-  <si>
-    <t>partial link text</t>
-  </si>
-  <si>
-    <t>请点击这里</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:52:56</t>
-  </si>
-  <si>
-    <t>getAssertIn</t>
-  </si>
-  <si>
-    <t>我的空间</t>
-  </si>
-  <si>
-    <t>通过:getAssertIn</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:53:02</t>
-  </si>
-  <si>
-    <t>外星人的空间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未通过:getAssertInTraceback (most recent call last):
-  File "D:\SELENIUM课件汇总=\课件总案例\我要自学网\key-data4-21\testScript\TestLogin.py", line 38, in TestLogin
-    eval(executingMethod)
+    <t>&lt;成功&gt; getBrowser("firefox")</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getUrl("https://www.baidu.com")</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:47:59</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getSendKeys('id', 'kw', '天气')</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:48:01</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getClick('id', 'su')</t>
+  </si>
+  <si>
+    <t>预报</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getClick('partial link text', '预报')</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:48:02</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getSleep(3)</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:48:03</t>
+  </si>
+  <si>
+    <t>getClose</t>
+  </si>
+  <si>
+    <t>&lt;成功&gt; getClose()</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:48:06</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:53:59</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:01</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:04</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:05</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;失败&gt; getAssertIn("外星人的空间")页面代码中没有发现目标元素：外星人的空间Traceback (most recent call last):
+  File "D:\SELENIUM课件汇总=\课件总案例\我要自学网\KeyPlusDataFrameWork\testcases\TestLogin.py", line 40, in testLogin
+    eval(executing_method)
   File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\SELENIUM课件汇总=\课件总案例\我要自学网\key-data4-21\action\PageAction.py", line 52, in getAssertIn
+  File "D:\SELENIUM课件汇总=\课件总案例\我要自学网\KeyPlusDataFrameWork\performance\PagePerformance.py", line 51, in getAssertIn
     raise e
-  File "D:\SELENIUM课件汇总=\课件总案例\我要自学网\key-data4-21\action\PageAction.py", line 49, in getAssertIn
+  File "D:\SELENIUM课件汇总=\课件总案例\我要自学网\KeyPlusDataFrameWork\performance\PagePerformance.py", line 48, in getAssertIn
     assert element in getPageSource(), '页面代码中没有发现目标元素：%s'%str(element)
 AssertionError: 页面代码中没有发现目标元素：外星人的空间
 </t>
   </si>
   <si>
-    <t>执行失败截图</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>getSleep</t>
-  </si>
-  <si>
-    <t>通过:getSleep</t>
-  </si>
-  <si>
-    <t>定位类型</t>
-  </si>
-  <si>
-    <t>定位元素表达式</t>
-  </si>
-  <si>
-    <t>link text</t>
-  </si>
-  <si>
-    <t>会员中心</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>truename</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>oicq</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>msn</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>mycall</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>getUpLoadLocalFile</t>
-  </si>
-  <si>
-    <t>userpicfile</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>saytext</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>座机</t>
-  </si>
-  <si>
-    <t>网址</t>
-  </si>
-  <si>
-    <t>本地头像</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>邮编</t>
-  </si>
-  <si>
-    <t>个人介绍</t>
-  </si>
-  <si>
-    <t>执行结束时间</t>
-  </si>
-  <si>
-    <t>小李</t>
-  </si>
-  <si>
-    <t>hotmail</t>
-  </si>
-  <si>
-    <t>www.ccom</t>
-  </si>
-  <si>
-    <t>D:\Desktop\gaming\jiang.jpg</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>大家好</t>
-  </si>
-  <si>
-    <t>&lt;成功&gt;共有步骤：12, 实际执行步骤：12</t>
-  </si>
-  <si>
-    <t>小王</t>
-  </si>
-  <si>
-    <t>126.com</t>
-  </si>
-  <si>
-    <t>http</t>
-  </si>
-  <si>
-    <t>D:\Desktop\gaming\ing.jpg</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>不错</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:53:04</t>
-  </si>
-  <si>
-    <t>小张</t>
-  </si>
-  <si>
-    <t>qq.com</t>
-  </si>
-  <si>
-    <t>httpcom</t>
-  </si>
-  <si>
-    <t>河北</t>
-  </si>
-  <si>
-    <t>有点冷</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:53:05</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>Marry</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>www.en</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>2019-04-21 08:53:06</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>2019-04-21 07:34:14</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-  </si>
-  <si>
-    <t>2019-04-21 07:34:16</t>
-  </si>
-  <si>
-    <t>kw</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>2019-04-21 07:34:18</t>
-  </si>
-  <si>
-    <t>全国</t>
-  </si>
-  <si>
-    <t>2019-04-21 07:34:20</t>
-  </si>
-  <si>
-    <t>getClose</t>
-  </si>
-  <si>
-    <t>通过:getClose</t>
-  </si>
-  <si>
-    <t>2019-04-21 07:34:23</t>
-  </si>
-  <si>
-    <t>2019-05-04 07:26:46</t>
-  </si>
-  <si>
-    <t>写入A4</t>
+    <t>2019-05-04 09:54:08</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:09</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:14</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:20</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:25</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:30</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:35</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:36</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:37</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:38</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:39</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:42</t>
+  </si>
+  <si>
+    <t>2019-05-04 09:54:45</t>
   </si>
 </sst>
 </file>
@@ -518,12 +605,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <family val="2"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -569,6 +650,12 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FFFF3030"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
@@ -611,7 +698,7 @@
       <protection hidden="0" locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,28 +736,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -682,12 +774,11 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -994,10 +1085,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="1" width="13.375"/>
+    <col customWidth="1" max="1" min="1" style="1" width="5"/>
+    <col customWidth="1" max="2" min="2" style="1" width="7"/>
+    <col customWidth="1" max="3" min="3" style="1" width="11.75"/>
     <col customWidth="1" max="4" min="4" style="1" width="9.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="14.875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="15.375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13.125"/>
+    <col customWidth="1" max="6" min="6" style="1" width="7.25"/>
+    <col customWidth="1" max="7" min="7" style="1" width="20.875"/>
     <col customWidth="1" max="8" min="8" style="1" width="24.375"/>
   </cols>
   <sheetData>
@@ -1037,10 +1131,10 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="10" t="n"/>
@@ -1059,10 +1153,10 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="27" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1074,14 +1168,16 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="I4" s="10" t="n"/>
+      <c r="J4" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1103,266 +1199,266 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="8" width="21.25"/>
+    <col customWidth="1" max="1" min="1" style="8" width="11.625"/>
     <col customWidth="1" max="2" min="2" style="8" width="10.25"/>
     <col customWidth="1" max="3" min="3" style="8" width="11.125"/>
     <col customWidth="1" max="4" min="4" style="8" width="19.5"/>
     <col customWidth="1" max="5" min="5" style="8" width="10.625"/>
     <col customWidth="1" max="6" min="6" style="8" width="15"/>
-    <col customWidth="1" max="7" min="7" style="8" width="23.25"/>
+    <col customWidth="1" max="7" min="7" style="8" width="42.25"/>
     <col customWidth="1" max="8" min="8" style="9" width="22.625"/>
-    <col customWidth="1" max="52" min="9" style="9" width="9"/>
-    <col customWidth="1" max="16384" min="53" style="9" width="9"/>
+    <col customWidth="1" max="61" min="9" style="9" width="9"/>
+    <col customWidth="1" max="16384" min="62" style="9" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="14" t="s">
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="19" t="n"/>
+      <c r="H2" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="18" t="n"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="12" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="19" t="n"/>
+      <c r="H3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="18" t="n"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="F4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="19" t="n"/>
+      <c r="G4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="18" t="n"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="19" t="n"/>
+      <c r="C5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="18" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="19" t="n"/>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="18" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="19" t="n"/>
+      <c r="D7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="18" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="13" t="n"/>
-      <c r="C8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="19" t="n"/>
+      <c r="B8" s="12" t="n"/>
+      <c r="C8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="18" t="n"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="12" t="s">
+      <c r="B9" s="12" t="n"/>
+      <c r="C9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="18" t="n"/>
+      <c r="D9" s="12" t="n"/>
+      <c r="E9" s="12" t="n"/>
+      <c r="F9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="17" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9" t="n">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="19" t="n"/>
+      <c r="G10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="18" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1382,7 +1478,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1400,10 +1496,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -1414,14 +1510,14 @@
       <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>51</v>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="n"/>
     </row>
@@ -1429,11 +1525,11 @@
       <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>51</v>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
@@ -1444,102 +1540,102 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>39</v>
+      <c r="B5" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>39</v>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>39</v>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>39</v>
+      <c r="B9" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1547,67 +1643,67 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>39</v>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
+      <c r="B12" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>39</v>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1720,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="29.375" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1640,7 +1736,7 @@
     <col customWidth="1" max="9" min="9" style="1" width="5"/>
     <col customWidth="1" max="10" min="10" style="1" width="6.875"/>
     <col customWidth="1" max="11" min="11" style="1" width="8.25"/>
-    <col customWidth="1" max="12" min="12" style="1" width="6.25"/>
+    <col customWidth="1" max="12" min="12" style="1" width="5"/>
     <col customWidth="1" max="13" min="13" style="1" width="20.125"/>
     <col customWidth="1" max="14" min="14" style="1" width="9.625"/>
   </cols>
@@ -1650,40 +1746,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
@@ -1692,13 +1788,13 @@
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="n"/>
       <c r="B2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>6939</v>
+        <v>108</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>5678</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>1366</v>
@@ -1707,39 +1803,39 @@
         <v>66778</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J2" s="9" t="n">
         <v>10000</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>110</v>
+      <c r="M2" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>4456</v>
+        <v>115</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>2345</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>1377</v>
@@ -1748,39 +1844,39 @@
         <v>6655</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J3" s="9" t="n">
         <v>22222</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>110</v>
+      <c r="M3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>76533</v>
+        <v>122</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>1234</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>1388</v>
@@ -1789,39 +1885,39 @@
         <v>5677</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J4" s="9" t="n">
         <v>33333</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>110</v>
+      <c r="M4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="B5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>6939</v>
+        <v>128</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>10987</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>1366</v>
@@ -1830,33 +1926,33 @@
         <v>66778</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J5" s="9" t="n">
         <v>10000</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>12345</v>
+        <v>131</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>24534635</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>12335</v>
@@ -1865,28 +1961,28 @@
         <v>5675467</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J6" s="9" t="n">
         <v>22</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>110</v>
+      <c r="M6" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1908,10 +2004,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1944,111 +2040,131 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>20</v>
+        <v>137</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="C3" s="12" t="s">
-        <v>34</v>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="C4" s="12" t="s">
-        <v>39</v>
+      <c r="C4" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="C5" s="12" t="s">
-        <v>51</v>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>20</v>
+        <v>146</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="C6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="9" t="n">
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>20</v>
+      <c r="G7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
